--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncronnelly/Documents/GitHub/MaterMinds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C953A2C-7948-7C49-A33D-69E151F84656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF20BC7-C430-3140-BFAC-E8A7B293E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
+    <workbookView xWindow="29140" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>Case's</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Expexeped outcome</t>
+  </si>
+  <si>
+    <t>True outcome</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Clicking Start Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They game should move to the game screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goes to game screen </t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicking on rules button </t>
+  </si>
+  <si>
+    <t>Should display a alert explaing the aleart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show user rules and how to play </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,12 +423,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77086B28-B0BD-CC42-B896-4281C7044AB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncronnelly/Documents/GitHub/MaterMinds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF20BC7-C430-3140-BFAC-E8A7B293E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A2CE1-867D-B14B-B6C1-C32A41AE06F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29140" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Case's</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">Show user rules and how to play </t>
+  </si>
+  <si>
+    <t>Clicking on boxview color</t>
+  </si>
+  <si>
+    <t>should change the color depending on how many times the user clicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycles throught colors each time user clicks </t>
   </si>
 </sst>
 </file>
@@ -423,18 +432,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77086B28-B0BD-CC42-B896-4281C7044AB7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -488,6 +498,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncronnelly/Documents/GitHub/MaterMinds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A2CE1-867D-B14B-B6C1-C32A41AE06F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED109DD-FC17-4D43-9AF5-71AE6BDF1DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Case's</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t xml:space="preserve">cycles throught colors each time user clicks </t>
+  </si>
+  <si>
+    <t>clicking on boxview cheat pertection</t>
+  </si>
+  <si>
+    <t>user can only click on the first row at the start and then work their way down the grid only allowed to click on theat curretn row they are on</t>
+  </si>
+  <si>
+    <t>check pertechion works</t>
   </si>
 </sst>
 </file>
@@ -432,17 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77086B28-B0BD-CC42-B896-4281C7044AB7}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -515,6 +524,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncronnelly/Documents/GitHub/MaterMinds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED109DD-FC17-4D43-9AF5-71AE6BDF1DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83524D1-CE24-F74C-AB0E-6F8C8D255C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncronnelly/Documents/GitHub/MaterMinds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83524D1-CE24-F74C-AB0E-6F8C8D255C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909CF80-2A57-5744-A242-D416C3BFE595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
+    <workbookView xWindow="28980" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0DAC86A6-B007-2D4A-846E-165DFFA658DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Case's</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>check pertechion works</t>
+  </si>
+  <si>
+    <t>Random color code</t>
+  </si>
+  <si>
+    <t>fucntion should creatse a random 4 color code</t>
+  </si>
+  <si>
+    <t>fucntion does create a for color code</t>
+  </si>
+  <si>
+    <t>Phone test</t>
+  </si>
+  <si>
+    <t>all above test should work on phone</t>
+  </si>
+  <si>
+    <t>working as expected, althoug some lag</t>
   </si>
 </sst>
 </file>
@@ -441,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77086B28-B0BD-CC42-B896-4281C7044AB7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +559,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
